--- a/input_test/MEP_example_good.xlsx
+++ b/input_test/MEP_example_good.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="1" state="visible" r:id="rId2"/>
@@ -32,450 +32,453 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="148">
-  <si>
-    <t xml:space="preserve">General Reaction and Sampling Platform (GRASP)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Model name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MEP_copy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sampling mode (ORACLE, rejection, rejectionSMC, SMC, MCMC-SMC)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ORACLE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NLP solver (NLOPT, OPTI, FMINCON (default))</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FMINCON</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Number of exp. conditions (excluding reference state)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Number of model structures</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Number of particles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Parallel mode (ON = 1; OFF = 0)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Number of cores (ignored if Parallel mode disabled)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Percentile of alive particles for SMC (e.g., 20, 50, etc.) (only needed for rejectionSMC, SMC, MCMC-SMC)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Compute robust fluxes (ON = 1; OFF = 0)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Compute thermodynamics (ON = 1; OFF = 0)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Inicial tolerance (OPTIONAL)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Final tolerance (in the case of ORACLE, set to 1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rxn ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">g3p</t>
-  </si>
-  <si>
-    <t xml:space="preserve">h2o</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pyr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">co2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dxp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nadph</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nadp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">h</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fld_ox</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fld_red</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mep</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ctp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cmp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cdmep</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ppi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cdpmep</t>
-  </si>
-  <si>
-    <t xml:space="preserve">atp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">adp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mecpp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hmbpp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dmpp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ipp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">iso</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mecpp_ex</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dxp_ex</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dxs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EX_dxp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dxr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ispD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ispE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ispF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EX_mecpp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ispG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fpr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ispH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">idi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ispS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EX_iso</t>
-  </si>
-  <si>
-    <t xml:space="preserve">biomass_drain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Metabolite name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">balanced?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">active?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fixed?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">glyceraldehyde 3-phosphate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">water</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pyruvate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">carbon dioxide</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1-deoxy-D-xylulose 5-phosphate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nicotinamide adenine dinucleotide phosphate - reduced</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nicotinamide adenine dinucleotide phosphate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">proton</t>
-  </si>
-  <si>
-    <t xml:space="preserve">flavodoxin oxidized</t>
-  </si>
-  <si>
-    <t xml:space="preserve">flavodoxin reduced</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2-C-methyl-D-erythritol 4-phosphate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CDP-methyl-D-erythritol</t>
-  </si>
-  <si>
-    <t xml:space="preserve">diphosphate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4-(cytidine 5'-diphospho)-2-C-methyl-D-erythritol</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2-phospho-4-(cytidine 5'-diphospho)-2-C-methyl-D-erythritol</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1-hydroxy-2-methyl-2-(E)-butenyl 4-diphosphate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dimethylallyl diphosphate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">isopentenyl diphosphate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">isoprene</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2-phospho-4-(cytidine 5'-diphospho)-2-C-methyl-D-erythritol external</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1-deoxy-D-xylulose 5-phosphate external</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reaction name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">transportRxn?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">modelled?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">isoenzymes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1-deoxyxylulose-5-phosphate synthase</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dxp exchange</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1-deoxy-D-xylulose 5-phosphate reductoisomerase</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4-diphosphocytidyl-2C-methyl-D-erythritol synthase</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4-diphosphocytidyl-2-C-methylerythritol kinase</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2C-methyl-D-erythritol 2,4-cyclodiphosphate synthase</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mecpp exchange (enzymatic)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1-hydroxy-2-methyl-2-(E)-butenyl 4-diphosphate synthase</t>
-  </si>
-  <si>
-    <t xml:space="preserve">flavodoxin-NAPD+ oxidoreductase</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1-hydroxy-2-methyl-2-(E)-butenyl 4-diphosphate reductase</t>
-  </si>
-  <si>
-    <t xml:space="preserve">isopentenyl-diphosphate D-isomerase</t>
-  </si>
-  <si>
-    <t xml:space="preserve">isoprene synthase</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EX_isoprene</t>
-  </si>
-  <si>
-    <t xml:space="preserve">isoprene exchange</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fpp drain for biosynthesis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">met</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rxn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">∆Gr'_min (kJ/mol)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">∆Gr'_max (kJ/mol)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">min (M)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">max (M)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fluxes (umol/gdcw/h)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MBo10_mean</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MBo10_std</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MBo10_mean2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MBo10_std2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">enzyme/rxn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MBo10_LB2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MBo10_meas2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MBo10_UB2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reaction ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kinetic mechanism</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Substrate Order</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Product Order</t>
-  </si>
-  <si>
-    <t xml:space="preserve">promiscuous</t>
-  </si>
-  <si>
-    <t xml:space="preserve">inhibitors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">activators</t>
-  </si>
-  <si>
-    <t xml:space="preserve">negative effector</t>
-  </si>
-  <si>
-    <t xml:space="preserve">positive effector</t>
-  </si>
-  <si>
-    <t xml:space="preserve">allosteric</t>
-  </si>
-  <si>
-    <t xml:space="preserve">subunits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">comments</t>
-  </si>
-  <si>
-    <t xml:space="preserve">randomSequential</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This enzyme is not allosteric in the MWC sense as it only has one active site.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">massAction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Modelled as mass action</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dxrInhibition</t>
-  </si>
-  <si>
-    <t xml:space="preserve">orderedBiBi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">orderedUniBi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This enzyme could be allosteric and may have regulation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UniUni</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Modelled as a uniporter (facilitated diffusion)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">orderedIspG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Modelled as allosteric</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enzyme follows ordered mechanism</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ispH_branching</t>
-  </si>
-  <si>
-    <t xml:space="preserve">diffusion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Modelled as passive diffusion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fixedExchange</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fixed drain</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="149">
+  <si>
+    <t>General Reaction and Sampling Platform (GRASP)</t>
+  </si>
+  <si>
+    <t>Model name</t>
+  </si>
+  <si>
+    <t>MEP_copy</t>
+  </si>
+  <si>
+    <t>Sampling mode (ORACLE, rejection, rejectionSMC, SMC, MCMC-SMC)</t>
+  </si>
+  <si>
+    <t>ORACLE</t>
+  </si>
+  <si>
+    <t>NLP solver (NLOPT, OPTI, FMINCON (default))</t>
+  </si>
+  <si>
+    <t>FMINCON</t>
+  </si>
+  <si>
+    <t>Number of exp. conditions (excluding reference state)</t>
+  </si>
+  <si>
+    <t>Number of model structures</t>
+  </si>
+  <si>
+    <t>Number of particles</t>
+  </si>
+  <si>
+    <t>Parallel mode (ON = 1; OFF = 0)</t>
+  </si>
+  <si>
+    <t>Number of cores (ignored if Parallel mode disabled)</t>
+  </si>
+  <si>
+    <t>Percentile of alive particles for SMC (e.g., 20, 50, etc.) (only needed for rejectionSMC, SMC, MCMC-SMC)</t>
+  </si>
+  <si>
+    <t>Compute robust fluxes (ON = 1; OFF = 0)</t>
+  </si>
+  <si>
+    <t>Compute thermodynamics (ON = 1; OFF = 0)</t>
+  </si>
+  <si>
+    <t>Inicial tolerance (OPTIONAL)</t>
+  </si>
+  <si>
+    <t>Final tolerance (in the case of ORACLE, set to 1)</t>
+  </si>
+  <si>
+    <t>rxn ID</t>
+  </si>
+  <si>
+    <t>g3p</t>
+  </si>
+  <si>
+    <t>h2o</t>
+  </si>
+  <si>
+    <t>pyr</t>
+  </si>
+  <si>
+    <t>co2</t>
+  </si>
+  <si>
+    <t>dxp</t>
+  </si>
+  <si>
+    <t>nadph</t>
+  </si>
+  <si>
+    <t>nadp</t>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>fld_ox</t>
+  </si>
+  <si>
+    <t>fld_red</t>
+  </si>
+  <si>
+    <t>mep</t>
+  </si>
+  <si>
+    <t>ctp</t>
+  </si>
+  <si>
+    <t>cmp</t>
+  </si>
+  <si>
+    <t>cdmep</t>
+  </si>
+  <si>
+    <t>ppi</t>
+  </si>
+  <si>
+    <t>cdpmep</t>
+  </si>
+  <si>
+    <t>atp</t>
+  </si>
+  <si>
+    <t>adp</t>
+  </si>
+  <si>
+    <t>mecpp</t>
+  </si>
+  <si>
+    <t>hmbpp</t>
+  </si>
+  <si>
+    <t>dmpp</t>
+  </si>
+  <si>
+    <t>ipp</t>
+  </si>
+  <si>
+    <t>iso</t>
+  </si>
+  <si>
+    <t>mecpp_ex</t>
+  </si>
+  <si>
+    <t>dxp_ex</t>
+  </si>
+  <si>
+    <t>dxs</t>
+  </si>
+  <si>
+    <t>EX_dxp</t>
+  </si>
+  <si>
+    <t>dxr</t>
+  </si>
+  <si>
+    <t>ispD</t>
+  </si>
+  <si>
+    <t>ispE</t>
+  </si>
+  <si>
+    <t>ispF</t>
+  </si>
+  <si>
+    <t>EX_mecpp</t>
+  </si>
+  <si>
+    <t>ispG</t>
+  </si>
+  <si>
+    <t>fpr</t>
+  </si>
+  <si>
+    <t>ispH</t>
+  </si>
+  <si>
+    <t>idi</t>
+  </si>
+  <si>
+    <t>ispS</t>
+  </si>
+  <si>
+    <t>EX_iso</t>
+  </si>
+  <si>
+    <t>biomass_drain</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Metabolite name</t>
+  </si>
+  <si>
+    <t>balanced?</t>
+  </si>
+  <si>
+    <t>active?</t>
+  </si>
+  <si>
+    <t>fixed?</t>
+  </si>
+  <si>
+    <t>measured?</t>
+  </si>
+  <si>
+    <t>glyceraldehyde 3-phosphate</t>
+  </si>
+  <si>
+    <t>water</t>
+  </si>
+  <si>
+    <t>pyruvate</t>
+  </si>
+  <si>
+    <t>carbon dioxide</t>
+  </si>
+  <si>
+    <t>1-deoxy-D-xylulose 5-phosphate</t>
+  </si>
+  <si>
+    <t>nicotinamide adenine dinucleotide phosphate - reduced</t>
+  </si>
+  <si>
+    <t>nicotinamide adenine dinucleotide phosphate</t>
+  </si>
+  <si>
+    <t>proton</t>
+  </si>
+  <si>
+    <t>flavodoxin oxidized</t>
+  </si>
+  <si>
+    <t>flavodoxin reduced</t>
+  </si>
+  <si>
+    <t>2-C-methyl-D-erythritol 4-phosphate</t>
+  </si>
+  <si>
+    <t>CDP-methyl-D-erythritol</t>
+  </si>
+  <si>
+    <t>diphosphate</t>
+  </si>
+  <si>
+    <t>4-(cytidine 5'-diphospho)-2-C-methyl-D-erythritol</t>
+  </si>
+  <si>
+    <t>2-phospho-4-(cytidine 5'-diphospho)-2-C-methyl-D-erythritol</t>
+  </si>
+  <si>
+    <t>1-hydroxy-2-methyl-2-(E)-butenyl 4-diphosphate</t>
+  </si>
+  <si>
+    <t>dimethylallyl diphosphate</t>
+  </si>
+  <si>
+    <t>isopentenyl diphosphate</t>
+  </si>
+  <si>
+    <t>isoprene</t>
+  </si>
+  <si>
+    <t>2-phospho-4-(cytidine 5'-diphospho)-2-C-methyl-D-erythritol external</t>
+  </si>
+  <si>
+    <t>1-deoxy-D-xylulose 5-phosphate external</t>
+  </si>
+  <si>
+    <t>reaction name</t>
+  </si>
+  <si>
+    <t>transportRxn?</t>
+  </si>
+  <si>
+    <t>modelled?</t>
+  </si>
+  <si>
+    <t>isoenzymes</t>
+  </si>
+  <si>
+    <t>1-deoxyxylulose-5-phosphate synthase</t>
+  </si>
+  <si>
+    <t>dxp exchange</t>
+  </si>
+  <si>
+    <t>1-deoxy-D-xylulose 5-phosphate reductoisomerase</t>
+  </si>
+  <si>
+    <t>4-diphosphocytidyl-2C-methyl-D-erythritol synthase</t>
+  </si>
+  <si>
+    <t>4-diphosphocytidyl-2-C-methylerythritol kinase</t>
+  </si>
+  <si>
+    <t>2C-methyl-D-erythritol 2,4-cyclodiphosphate synthase</t>
+  </si>
+  <si>
+    <t>mecpp exchange (enzymatic)</t>
+  </si>
+  <si>
+    <t>1-hydroxy-2-methyl-2-(E)-butenyl 4-diphosphate synthase</t>
+  </si>
+  <si>
+    <t>flavodoxin-NAPD+ oxidoreductase</t>
+  </si>
+  <si>
+    <t>1-hydroxy-2-methyl-2-(E)-butenyl 4-diphosphate reductase</t>
+  </si>
+  <si>
+    <t>isopentenyl-diphosphate D-isomerase</t>
+  </si>
+  <si>
+    <t>isoprene synthase</t>
+  </si>
+  <si>
+    <t>EX_isoprene</t>
+  </si>
+  <si>
+    <t>isoprene exchange</t>
+  </si>
+  <si>
+    <t>fpp drain for biosynthesis</t>
+  </si>
+  <si>
+    <t>met</t>
+  </si>
+  <si>
+    <t>rxn</t>
+  </si>
+  <si>
+    <t>∆Gr'_min (kJ/mol)</t>
+  </si>
+  <si>
+    <t>∆Gr'_max (kJ/mol)</t>
+  </si>
+  <si>
+    <t>min (M)</t>
+  </si>
+  <si>
+    <t>max (M)</t>
+  </si>
+  <si>
+    <t>Fluxes (umol/gdcw/h)</t>
+  </si>
+  <si>
+    <t>MBo10_mean</t>
+  </si>
+  <si>
+    <t>MBo10_std</t>
+  </si>
+  <si>
+    <t>MBo10_mean2</t>
+  </si>
+  <si>
+    <t>MBo10_std2</t>
+  </si>
+  <si>
+    <t>enzyme/rxn</t>
+  </si>
+  <si>
+    <t>MBo10_LB2</t>
+  </si>
+  <si>
+    <t>MBo10_meas2</t>
+  </si>
+  <si>
+    <t>MBo10_UB2</t>
+  </si>
+  <si>
+    <t>mets</t>
+  </si>
+  <si>
+    <t>reaction ID</t>
+  </si>
+  <si>
+    <t>kinetic mechanism</t>
+  </si>
+  <si>
+    <t>Substrate Order</t>
+  </si>
+  <si>
+    <t>Product Order</t>
+  </si>
+  <si>
+    <t>promiscuous</t>
+  </si>
+  <si>
+    <t>inhibitors</t>
+  </si>
+  <si>
+    <t>activators</t>
+  </si>
+  <si>
+    <t>negative effector</t>
+  </si>
+  <si>
+    <t>positive effector</t>
+  </si>
+  <si>
+    <t>allosteric</t>
+  </si>
+  <si>
+    <t>subunits</t>
+  </si>
+  <si>
+    <t>comments</t>
+  </si>
+  <si>
+    <t>randomSequential</t>
+  </si>
+  <si>
+    <t>This enzyme is not allosteric in the MWC sense as it only has one active site.</t>
+  </si>
+  <si>
+    <t>massAction</t>
+  </si>
+  <si>
+    <t>Modelled as mass action</t>
+  </si>
+  <si>
+    <t>dxrInhibition</t>
+  </si>
+  <si>
+    <t>orderedBiBi</t>
+  </si>
+  <si>
+    <t>orderedUniBi</t>
+  </si>
+  <si>
+    <t>This enzyme could be allosteric and may have regulation</t>
+  </si>
+  <si>
+    <t>UniUni</t>
+  </si>
+  <si>
+    <t>Modelled as a uniporter (facilitated diffusion)</t>
+  </si>
+  <si>
+    <t>orderedIspG</t>
+  </si>
+  <si>
+    <t>Modelled as allosteric</t>
+  </si>
+  <si>
+    <t>Enzyme follows ordered mechanism</t>
+  </si>
+  <si>
+    <t>ispH_branching</t>
+  </si>
+  <si>
+    <t>diffusion</t>
+  </si>
+  <si>
+    <t>Modelled as passive diffusion</t>
+  </si>
+  <si>
+    <t>fixedExchange</t>
+  </si>
+  <si>
+    <t>Fixed drain</t>
   </si>
 </sst>
 </file>
@@ -483,7 +486,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="164" formatCode="GENERAL"/>
     <numFmt numFmtId="165" formatCode="0"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
@@ -616,7 +619,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -663,6 +666,10 @@
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -764,15 +771,15 @@
   </sheetPr>
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="69.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="29.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="8.51"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="71.2348178137652"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="30.1012145748988"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -826,7 +833,7 @@
         <v>9</v>
       </c>
       <c r="B7" s="6" t="n">
-        <v>1000</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -887,7 +894,7 @@
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -902,30 +909,30 @@
   </sheetPr>
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.51"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="11" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -964,7 +971,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="11" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0.915002642603547</v>
@@ -999,7 +1006,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -1014,27 +1021,27 @@
   </sheetPr>
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.51"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="11" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1207,7 +1214,7 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0.99</v>
@@ -1236,7 +1243,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -1251,27 +1258,27 @@
   </sheetPr>
   <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D24" activeCellId="0" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.51"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="D1" s="11" t="s">
         <v>117</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1527,7 +1534,7 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="14" t="s">
+      <c r="A20" s="15" t="s">
         <v>38</v>
       </c>
       <c r="B20" s="0" t="n">
@@ -1541,7 +1548,7 @@
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="14" t="s">
+      <c r="A21" s="15" t="s">
         <v>39</v>
       </c>
       <c r="B21" s="0" t="n">
@@ -1555,7 +1562,7 @@
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="15" t="s">
+      <c r="A22" s="16" t="s">
         <v>40</v>
       </c>
       <c r="B22" s="0" t="n">
@@ -1569,7 +1576,7 @@
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="14" t="s">
+      <c r="A23" s="15" t="s">
         <v>42</v>
       </c>
       <c r="B23" s="0" t="n">
@@ -1583,7 +1590,7 @@
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="14" t="s">
+      <c r="A24" s="15" t="s">
         <v>41</v>
       </c>
       <c r="B24" s="0" t="n">
@@ -1599,7 +1606,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -1614,62 +1621,62 @@
   </sheetPr>
   <dimension ref="A1:L15"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="32.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="5" style="0" width="8.51"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.5303643724696"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="33.5263157894737"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="12.3198380566802"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="11" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G1" s="11" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H1" s="11" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="I1" s="11" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="J1" s="11" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K1" s="11" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L1" s="11" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="17" t="s">
         <v>43</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="J2" s="0" t="n">
         <v>0</v>
@@ -1678,15 +1685,15 @@
         <v>1</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="17" t="s">
         <v>44</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="J3" s="0" t="n">
         <v>0</v>
@@ -1695,15 +1702,15 @@
         <v>0</v>
       </c>
       <c r="L3" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="17" t="s">
         <v>45</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F4" s="0" t="s">
         <v>22</v>
@@ -1716,11 +1723,11 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="17" t="s">
         <v>46</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="J5" s="0" t="n">
         <v>0</v>
@@ -1730,11 +1737,11 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="17" t="s">
         <v>47</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="J6" s="0" t="n">
         <v>0</v>
@@ -1744,11 +1751,11 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="17" t="s">
         <v>48</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H7" s="0" t="s">
         <v>22</v>
@@ -1763,15 +1770,15 @@
         <v>3</v>
       </c>
       <c r="L7" s="0" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="17" t="s">
         <v>49</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="J8" s="0" t="n">
         <v>0</v>
@@ -1780,15 +1787,15 @@
         <v>0</v>
       </c>
       <c r="L8" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="17" t="s">
         <v>50</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="J9" s="0" t="n">
         <v>0</v>
@@ -1797,15 +1804,15 @@
         <v>2</v>
       </c>
       <c r="L9" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="17" t="s">
         <v>51</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="J10" s="0" t="n">
         <v>0</v>
@@ -1814,15 +1821,15 @@
         <v>1</v>
       </c>
       <c r="L10" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="17" t="s">
         <v>52</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="J11" s="0" t="n">
         <v>0</v>
@@ -1836,7 +1843,7 @@
         <v>53</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="J12" s="0" t="n">
         <v>0</v>
@@ -1850,7 +1857,7 @@
         <v>54</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="J13" s="0" t="n">
         <v>0</v>
@@ -1861,10 +1868,10 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="J14" s="0" t="n">
         <v>0</v>
@@ -1873,7 +1880,7 @@
         <v>0</v>
       </c>
       <c r="L14" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1881,7 +1888,7 @@
         <v>56</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="J15" s="0" t="n">
         <v>0</v>
@@ -1890,13 +1897,13 @@
         <v>0</v>
       </c>
       <c r="L15" s="0" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -1911,14 +1918,14 @@
   </sheetPr>
   <dimension ref="A1:Z15"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="2" style="0" width="8.51"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.5344129554656"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3124,7 +3131,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -3137,19 +3144,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F27" activeCellId="0" sqref="F27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1023" min="1" style="0" width="8.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1024" style="0" width="8.83"/>
+    <col collapsed="false" hidden="false" max="1023" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="8.78542510121457"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="11" t="s">
         <v>57</v>
       </c>
@@ -3164,6 +3171,9 @@
       </c>
       <c r="E1" s="11" t="s">
         <v>61</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3171,7 +3181,7 @@
         <v>18</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>0</v>
@@ -3180,6 +3190,9 @@
         <v>1</v>
       </c>
       <c r="E2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3188,7 +3201,7 @@
         <v>19</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>0</v>
@@ -3198,6 +3211,9 @@
       </c>
       <c r="E3" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3205,7 +3221,7 @@
         <v>20</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>0</v>
@@ -3214,6 +3230,9 @@
         <v>1</v>
       </c>
       <c r="E4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3222,7 +3241,7 @@
         <v>21</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>0</v>
@@ -3232,6 +3251,9 @@
       </c>
       <c r="E5" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3239,7 +3261,7 @@
         <v>22</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>1</v>
@@ -3248,6 +3270,9 @@
         <v>1</v>
       </c>
       <c r="E6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3256,7 +3281,7 @@
         <v>23</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>0</v>
@@ -3265,6 +3290,9 @@
         <v>1</v>
       </c>
       <c r="E7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3273,7 +3301,7 @@
         <v>24</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>0</v>
@@ -3282,6 +3310,9 @@
         <v>1</v>
       </c>
       <c r="E8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3290,7 +3321,7 @@
         <v>25</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>0</v>
@@ -3300,6 +3331,9 @@
       </c>
       <c r="E9" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3307,7 +3341,7 @@
         <v>26</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>1</v>
@@ -3316,6 +3350,9 @@
         <v>1</v>
       </c>
       <c r="E10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3324,7 +3361,7 @@
         <v>27</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>1</v>
@@ -3333,6 +3370,9 @@
         <v>1</v>
       </c>
       <c r="E11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3341,7 +3381,7 @@
         <v>28</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>1</v>
@@ -3350,6 +3390,9 @@
         <v>1</v>
       </c>
       <c r="E12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3369,6 +3412,9 @@
       <c r="E13" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="F13" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="11" t="s">
@@ -3386,13 +3432,16 @@
       <c r="E14" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="F14" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="11" t="s">
         <v>31</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>1</v>
@@ -3401,6 +3450,9 @@
         <v>1</v>
       </c>
       <c r="E15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3409,7 +3461,7 @@
         <v>32</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>0</v>
@@ -3418,6 +3470,9 @@
         <v>1</v>
       </c>
       <c r="E16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3426,7 +3481,7 @@
         <v>33</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>1</v>
@@ -3435,6 +3490,9 @@
         <v>1</v>
       </c>
       <c r="E17" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3454,6 +3512,9 @@
       <c r="E18" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="F18" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
@@ -3471,13 +3532,16 @@
       <c r="E19" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="F19" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
         <v>36</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>1</v>
@@ -3486,6 +3550,9 @@
         <v>1</v>
       </c>
       <c r="E20" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3494,7 +3561,7 @@
         <v>37</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>1</v>
@@ -3503,6 +3570,9 @@
         <v>1</v>
       </c>
       <c r="E21" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3511,7 +3581,7 @@
         <v>38</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C22" s="0" t="n">
         <v>1</v>
@@ -3520,6 +3590,9 @@
         <v>1</v>
       </c>
       <c r="E22" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3528,7 +3601,7 @@
         <v>39</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C23" s="0" t="n">
         <v>1</v>
@@ -3537,6 +3610,9 @@
         <v>1</v>
       </c>
       <c r="E23" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3545,7 +3621,7 @@
         <v>40</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C24" s="0" t="n">
         <v>1</v>
@@ -3554,6 +3630,9 @@
         <v>1</v>
       </c>
       <c r="E24" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3562,7 +3641,7 @@
         <v>41</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C25" s="0" t="n">
         <v>0</v>
@@ -3571,6 +3650,9 @@
         <v>1</v>
       </c>
       <c r="E25" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3579,7 +3661,7 @@
         <v>42</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C26" s="0" t="n">
         <v>0</v>
@@ -3588,13 +3670,16 @@
         <v>1</v>
       </c>
       <c r="E26" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" s="0" t="n">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -3609,13 +3694,13 @@
   </sheetPr>
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.51"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3623,16 +3708,16 @@
         <v>57</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3640,7 +3725,7 @@
         <v>43</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>0</v>
@@ -3654,7 +3739,7 @@
         <v>44</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>0</v>
@@ -3668,7 +3753,7 @@
         <v>45</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>0</v>
@@ -3682,7 +3767,7 @@
         <v>46</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>0</v>
@@ -3696,7 +3781,7 @@
         <v>47</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>0</v>
@@ -3710,7 +3795,7 @@
         <v>48</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>0</v>
@@ -3724,7 +3809,7 @@
         <v>49</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>0</v>
@@ -3738,7 +3823,7 @@
         <v>50</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>0</v>
@@ -3752,7 +3837,7 @@
         <v>51</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>0</v>
@@ -3766,7 +3851,7 @@
         <v>52</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>0</v>
@@ -3780,7 +3865,7 @@
         <v>53</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>0</v>
@@ -3794,7 +3879,7 @@
         <v>54</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>0</v>
@@ -3805,10 +3890,10 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>1</v>
@@ -3822,7 +3907,7 @@
         <v>56</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>1</v>
@@ -3834,7 +3919,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -3849,13 +3934,13 @@
   </sheetPr>
   <dimension ref="A1:A15"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.51"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3925,7 +4010,7 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3936,7 +4021,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -3951,134 +4036,134 @@
   </sheetPr>
   <dimension ref="A1:A23"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.51"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="12" t="s">
-        <v>102</v>
+      <c r="A1" s="13" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="14" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="14" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="14" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="14" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="14" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="14" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="14" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="14" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="14" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="14" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="14" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="13" t="s">
+      <c r="A13" s="14" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="13" t="s">
+      <c r="A14" s="14" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="13" t="s">
+      <c r="A15" s="14" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="13" t="s">
+      <c r="A16" s="14" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="13" t="s">
+      <c r="A17" s="14" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="13" t="s">
+      <c r="A18" s="14" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="13" t="s">
+      <c r="A19" s="14" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="13" t="s">
+      <c r="A20" s="14" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="13" t="s">
+      <c r="A21" s="14" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="13" t="s">
+      <c r="A22" s="14" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="13" t="s">
+      <c r="A23" s="14" t="s">
         <v>42</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -4093,18 +4178,18 @@
   </sheetPr>
   <dimension ref="A1:A26"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.51"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4235,7 +4320,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -4250,27 +4335,27 @@
   </sheetPr>
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="8.51"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.9595141700405"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.2834008097166"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="11" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4407,7 +4492,7 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>-100</v>
@@ -4430,7 +4515,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -4445,24 +4530,24 @@
   </sheetPr>
   <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G20" activeCellId="0" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.51"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4743,7 +4828,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
